--- a/Saleel Tables VER2/PLSQL/ola.xlsx
+++ b/Saleel Tables VER2/PLSQL/ola.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>LOGOUTON</t>
+  </si>
+  <si>
+    <t>NULL</t>
   </si>
 </sst>
 </file>
@@ -535,7 +538,7 @@
   <dimension ref="B3:X14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,7 +718,9 @@
       <c r="W5" s="5">
         <v>0.29166666666666669</v>
       </c>
-      <c r="X5" s="5"/>
+      <c r="X5" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
@@ -837,7 +842,9 @@
       <c r="W7" s="5">
         <v>0.39583333333333331</v>
       </c>
-      <c r="X7" s="2"/>
+      <c r="X7" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
@@ -1003,7 +1010,9 @@
       <c r="W10" s="5">
         <v>0.48958333333333331</v>
       </c>
-      <c r="X10" s="2"/>
+      <c r="X10" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
@@ -1107,7 +1116,9 @@
       <c r="W12" s="5">
         <v>0.3125</v>
       </c>
-      <c r="X12" s="2"/>
+      <c r="X12" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B13" s="2">

--- a/Saleel Tables VER2/PLSQL/ola.xlsx
+++ b/Saleel Tables VER2/PLSQL/ola.xlsx
@@ -538,7 +538,7 @@
   <dimension ref="B3:X14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
